--- a/biology/Zoologie/Australopithecus_deyiremeda/Australopithecus_deyiremeda.xlsx
+++ b/biology/Zoologie/Australopithecus_deyiremeda/Australopithecus_deyiremeda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Australopithecus deyiremeda est une espèce d'hominidés fossile qui vivait il y a environ 3,4 millions d'années dans le Nord de l'Éthiopie actuelle, à peu près à la même époque et au même lieu qu’Australopithecus afarensis, dont l'un des spécimens est connu sous le surnom de Lucy. Cette espèce d'australopithèques a été décrite en 2015 à partir de fragments de mâchoire et de dents, restes fossiles d'au moins deux individus, découverts en 2011[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Australopithecus deyiremeda est une espèce d'hominidés fossile qui vivait il y a environ 3,4 millions d'années dans le Nord de l'Éthiopie actuelle, à peu près à la même époque et au même lieu qu’Australopithecus afarensis, dont l'un des spécimens est connu sous le surnom de Lucy. Cette espèce d'australopithèques a été décrite en 2015 à partir de fragments de mâchoire et de dents, restes fossiles d'au moins deux individus, découverts en 2011.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Australopithecus deyiremeda a été décrite en 2015 par le paléoanthropologue éthiopien Yohannes Haile-Selassie et son équipe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Australopithecus deyiremeda a été décrite en 2015 par le paléoanthropologue éthiopien Yohannes Haile-Selassie et son équipe.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Yohannes Haile-Selassie, Luis Gibert, Stephanie M. Melillo, Timothy M. Ryan, Mulugeta Alene, Alan Deino, Naomi E. Levin, Gary Scott et Beverly Z. Saylor, « New species from Ethiopia further expands Middle Pliocene hominin diversity », Nature, NPG et Springer Science+Business Media, vol. 521, no 7553,‎ 27 mai 2015, p. 483-488 (ISSN 1476-4687 et 0028-0836, OCLC 01586310, PMID 26017448, DOI 10.1038/NATURE14448)</t>
         </is>
